--- a/biology/Zoologie/Herbert_Friedmann/Herbert_Friedmann.xlsx
+++ b/biology/Zoologie/Herbert_Friedmann/Herbert_Friedmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herbert Friedmann (22 avril 1900 à Brooklyn, New York - 14 mai 1987) est un ornithologue et biologiste  américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il découvre l’ornithologie à 16 ans lorsqu’il visite l’American Museum of Natural History et commence à observer les oiseaux des parcs de la ville de New York. Il obtient à Manhattan son baccalauréat en 1920 et fait paraître son premier article scientifique en 1922. Celui-ci est remarqué par William Beebe (1877-1962), ornithologue et conservateur à la Société zoologique de New York. Beebe lui conseille de postuler pour une bourse à l’université Cornell. Grâce à elle, Friedmann conduit une thèse sous la direction d’Arthur Augustus Allen (1885-1964) en 1923. Une bourse postdoctorale lui est attribuée par le National Research Council et la Fondation Rockefeller. De 1923 à 1926, sous la direction de William Morton Wheeler (1865-1937) de l’université Harvard, il étudie les oiseaux parasites d’Amérique du Sud.
 Friedmann fait paraître en 1929 The Cowbirds: A Study in the Biology of Social Parasitism. Quelques années plus tôt, il avait obtenu une charge d’enseignement à l’université Brown et au Amherst College. En 1929, il devient conservateur du département des oiseaux au National Museum of Natural History de la Smithsonian Institution. Il met comme condition à son recrutement l’autorisation d’acheter une machine à écrire (la première à la Smithsonian) et de pouvoir librement s’en servir, ainsi que d’embaucher une femme secrétaire si celle-ci était la plus compétente à cet emploi.
@@ -547,7 +561,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stephen I. Rothstein, Ralph W. Schreiber et Thomas R. Howell (1988). In Memoriam : Herbert Friedmann, The Auk, 105 (2) : 365-368.  (ISSN 0004-8038)</t>
         </is>
